--- a/prijs schatting.xlsx
+++ b/prijs schatting.xlsx
@@ -24,12 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>microcontroller</t>
   </si>
   <si>
     <t xml:space="preserve">prijs schatting per print </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroom sensor </t>
+  </si>
+  <si>
+    <t>20 max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9euro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">andere onderdelen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20euro </t>
   </si>
 </sst>
 </file>
@@ -384,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -409,14 +424,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="J3">
-        <v>20</v>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="J7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
